--- a/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 18,0</t>
+          <t>5,67; 17,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 21,98</t>
+          <t>12,3; 21,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,02</t>
+          <t>10,66; 18,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,63</t>
+          <t>14,36; 20,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 27,7</t>
+          <t>22,19; 28,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 23,58</t>
+          <t>19,12; 23,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,68</t>
+          <t>10,47; 15,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 24,93</t>
+          <t>20,55; 24,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,53</t>
+          <t>16,21; 19,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,39</t>
+          <t>10,31; 15,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,91</t>
+          <t>11,24; 20,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,47</t>
+          <t>12,07; 17,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 18,27</t>
+          <t>13,67; 18,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,5</t>
+          <t>20,76; 25,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,44</t>
+          <t>18,07; 21,44</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,55</t>
+          <t>13,0; 15,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,09</t>
+          <t>19,44; 22,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,14</t>
+          <t>17,11; 19,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 17,49</t>
+          <t>5,78; 18,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,71</t>
+          <t>12,59; 21,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 18,21</t>
+          <t>10,76; 18,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 20,97</t>
+          <t>13,93; 20,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,12</t>
+          <t>21,93; 27,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 23,54</t>
+          <t>19,15; 23,58</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,41</t>
+          <t>10,67; 15,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 24,9</t>
+          <t>20,59; 24,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 19,58</t>
+          <t>16,03; 19,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 15,28</t>
+          <t>10,32; 15,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,93</t>
+          <t>11,43; 20,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 17,54</t>
+          <t>11,55; 17,47</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,3</t>
+          <t>13,79; 18,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,76; 25,36</t>
+          <t>20,6; 25,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 21,44</t>
+          <t>18,27; 21,44</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 15,58</t>
+          <t>13,08; 15,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,44; 22,99</t>
+          <t>19,43; 23,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,11; 19,23</t>
+          <t>17,16; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 18,0</t>
+          <t>13,26; 19,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 21,98</t>
+          <t>20,57; 25,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,02</t>
+          <t>17,47; 21,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>15,89%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,63</t>
+          <t>5,49; 14,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 27,7</t>
+          <t>20,47; 24,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 23,58</t>
+          <t>10,76; 18,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,68</t>
+          <t>9,94; 14,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 24,93</t>
+          <t>8,11; 19,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,53</t>
+          <t>8,82; 16,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,39</t>
+          <t>13,39; 17,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,91</t>
+          <t>17,36; 24,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,47</t>
+          <t>16,61; 20,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 18,27</t>
+          <t>9,97; 14,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,5</t>
+          <t>16,67; 22,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,44</t>
+          <t>14,77; 18,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,74%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>13,08; 15,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,43; 23,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 19,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 19,11</t>
+          <t>12,92; 19,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,61</t>
+          <t>20,92; 25,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 21,5</t>
+          <t>17,95; 21,51</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,12</t>
+          <t>5,38; 14,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 24,8</t>
+          <t>20,52; 24,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,47</t>
+          <t>10,8; 18,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 14,99</t>
+          <t>9,48; 14,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,81</t>
+          <t>7,8; 19,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 16,36</t>
+          <t>8,87; 16,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,75</t>
+          <t>13,29; 17,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 24,32</t>
+          <t>17,82; 24,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 20,73</t>
+          <t>16,45; 20,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,64</t>
+          <t>10,15; 14,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,36</t>
+          <t>16,05; 22,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,2</t>
+          <t>14,69; 18,16</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>100349</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>156040</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>256388</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>81981; 120516</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>141162; 174355</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>235042; 281655</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>125727</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>215997</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>341724</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64235; 170146</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>196561; 237957</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>232230; 399416</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84666</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>137164</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>221830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>66800; 103851</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>72796; 184061</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145269; 264941</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143054</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>238724</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>381778</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>123212; 163776</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>194674; 267654</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>332206; 413634</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>453796</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>747925</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1201720</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>351069; 505106</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>587398; 813489</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1045481; 1292841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>